--- a/pam-reconciled_2023-2024.xlsx
+++ b/pam-reconciled_2023-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upsystem-my.sharepoint.com/personal/jbquijano_outlook_up_edu_ph/Documents/Work/MMBL/Bioinformatics/ACIAR analyses/PAMAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A0434516-A6D8-4135-B373-AD6BA9B9C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{258943B1-1A1D-4598-9E5E-6FF977E18D5A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A0434516-A6D8-4135-B373-AD6BA9B9C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A1C24E-79CF-495C-9E1E-1B92469E594C}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4188" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{4F7F075A-D0BA-4950-9470-A44154F2D829}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{4F7F075A-D0BA-4950-9470-A44154F2D829}"/>
   </bookViews>
   <sheets>
     <sheet name="Amil" sheetId="1" r:id="rId1"/>
@@ -2789,8 +2789,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D792" sqref="D792:J793"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>45257</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>45257</v>
       </c>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>45257</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>45257</v>
       </c>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10">
         <v>45257</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
         <v>45257</v>
       </c>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="J179" s="7"/>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="10">
         <v>45257</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="10">
         <v>45257</v>
       </c>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="J251" s="7"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="10">
         <v>45257</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="10">
         <v>45257</v>
       </c>
@@ -12185,7 +12185,7 @@
       </c>
       <c r="J311" s="7"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="10">
         <v>45265</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="10">
         <v>45265</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="10">
         <v>45265</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="10">
         <v>45265</v>
       </c>
@@ -14637,7 +14637,7 @@
       </c>
       <c r="J391" s="7"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="10">
         <v>45265</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="10">
         <v>45265</v>
       </c>
@@ -17653,7 +17653,7 @@
       </c>
       <c r="J491" s="7"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="10">
         <v>45265</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="10">
         <v>45265</v>
       </c>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="J551" s="7"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="10">
         <v>45265</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="10">
         <v>45265</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="10">
         <v>45267</v>
       </c>
@@ -21327,7 +21327,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="10">
         <v>45267</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="10">
         <v>45267</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="10">
         <v>45267</v>
       </c>
@@ -23791,7 +23791,7 @@
       </c>
       <c r="J691" s="7"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="10">
         <v>45267</v>
       </c>
@@ -23823,7 +23823,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="10">
         <v>45267</v>
       </c>
@@ -26827,7 +26827,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="10">
         <v>45267</v>
       </c>
@@ -26860,7 +26860,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="10">
         <v>45267</v>
       </c>
@@ -28677,7 +28677,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" s="10">
         <v>45267</v>
       </c>
@@ -28707,7 +28707,7 @@
       </c>
       <c r="J852" s="7"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" s="10">
         <v>45267</v>
       </c>
@@ -30183,13 +30183,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K901" xr:uid="{2C964808-64BD-4F6A-B725-F9BC81AEBA5F}">
-    <filterColumn colId="3">
+    <filterColumn colId="0">
       <filters>
-        <filter val="06MA"/>
-        <filter val="06MB"/>
-        <filter val="06MC"/>
-        <filter val="06ME"/>
-        <filter val="06MG"/>
+        <dateGroupItem year="2023" month="11" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="A"/>
+        <filter val="B"/>
+        <filter val="D"/>
+        <filter val="E"/>
+        <filter val="F"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
